--- a/FantaSoccer/MyModule/Ligue1/xG_away_all_18.xlsx
+++ b/FantaSoccer/MyModule/Ligue1/xG_away_all_18.xlsx
@@ -815,31 +815,31 @@
         <v>6.650515</v>
       </c>
       <c r="K6">
-        <v>6.650515</v>
+        <v>8.200555000000001</v>
       </c>
       <c r="L6">
-        <v>6.650515</v>
+        <v>8.200555000000001</v>
       </c>
       <c r="M6">
-        <v>7.930635000000001</v>
+        <v>9.480675000000002</v>
       </c>
       <c r="N6">
-        <v>7.930635000000001</v>
+        <v>9.480675000000002</v>
       </c>
       <c r="O6">
-        <v>8.858513</v>
+        <v>10.408553</v>
       </c>
       <c r="P6">
-        <v>8.858513</v>
+        <v>10.408553</v>
       </c>
       <c r="Q6">
-        <v>9.821638</v>
+        <v>11.371678</v>
       </c>
       <c r="R6">
-        <v>10.966958</v>
+        <v>12.516998</v>
       </c>
       <c r="S6">
-        <v>10.966958</v>
+        <v>12.516998</v>
       </c>
     </row>
     <row r="7" spans="1:19">
